--- a/taxa g.xlsx
+++ b/taxa g.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE23A48-8CE4-4A50-8CA5-ACAF0F823493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66175F8-F940-4DD1-92B2-442AAB963CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="870" windowWidth="17625" windowHeight="14715" xr2:uid="{581C5D2A-C6E1-4042-9A7B-9097F85BD2AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{581C5D2A-C6E1-4042-9A7B-9097F85BD2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>s</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,55 +400,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21BF6F1-EC4B-460B-A44B-9ECC30BB55C7}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2018</v>
       </c>
       <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2019</v>
       </c>
       <c r="B2">
         <v>4.04</v>
       </c>
+      <c r="C2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D2">
+        <v>3.1</v>
+      </c>
+      <c r="E2">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2020</v>
-      </c>
-      <c r="B3">
-        <v>4.6500000000000004</v>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5">
-        <v>1.4</v>
-      </c>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/taxa g.xlsx
+++ b/taxa g.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66175F8-F940-4DD1-92B2-442AAB963CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EEB9A0-D400-4B26-BF10-A443592577CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{581C5D2A-C6E1-4042-9A7B-9097F85BD2AF}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>s</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,10 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +398,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Q4" sqref="Q4:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +437,26 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1"/>
+    </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>

--- a/taxa g.xlsx
+++ b/taxa g.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EEB9A0-D400-4B26-BF10-A443592577CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED42D7-1B5D-4A0B-B2C0-2D951B9A21BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{581C5D2A-C6E1-4042-9A7B-9097F85BD2AF}"/>
+    <workbookView xWindow="8160" yWindow="1005" windowWidth="19365" windowHeight="14940" xr2:uid="{581C5D2A-C6E1-4042-9A7B-9097F85BD2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +53,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,9 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +408,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,20 +431,20 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.2</v>
-      </c>
-      <c r="B2">
-        <v>4.04</v>
-      </c>
-      <c r="C2">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="D2">
-        <v>3.1</v>
-      </c>
-      <c r="E2">
-        <v>1.4</v>
+      <c r="A2" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">

--- a/taxa g.xlsx
+++ b/taxa g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED42D7-1B5D-4A0B-B2C0-2D951B9A21BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C325EA-02C7-4401-8727-8408C839FB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="1005" windowWidth="19365" windowHeight="14940" xr2:uid="{581C5D2A-C6E1-4042-9A7B-9097F85BD2AF}"/>
+    <workbookView xWindow="15060" yWindow="660" windowWidth="12810" windowHeight="14940" xr2:uid="{581C5D2A-C6E1-4042-9A7B-9097F85BD2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,25 +53,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,11 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +394,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,20 +417,20 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2">
+        <v>2.5</v>
+      </c>
+      <c r="B2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2">
         <v>3.4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2">
         <v>0.36</v>
+      </c>
+      <c r="E2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
